--- a/AutomationCourse/src/test/resources/Testdata.xlsx
+++ b/AutomationCourse/src/test/resources/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\SeleniumAutomationProject\AutomationCourse\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3745A3-AA73-4D61-B606-17925DDB075B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92EF8ED-27E6-4D9C-A44B-255870FBD58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
